--- a/src/main/resources/excel/billPackingMaterials.xlsx
+++ b/src/main/resources/excel/billPackingMaterials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xinrong\cq_xinrong_logistic\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{294207A1-F724-4BCA-A464-EF921436066F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{06008DB0-D489-4A09-A534-0F9E22CEC2AD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -243,9 +243,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>advanceFeeNoTax</t>
-  </si>
-  <si>
     <t>t.advanceFeeIncludeTax</t>
   </si>
   <si>
@@ -283,6 +280,10 @@
   </si>
   <si>
     <t>{{$fe:billPackingMaterials t.serialNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.advanceFeeNoTax</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -967,10 +968,10 @@
   <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="12" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="52.875" defaultRowHeight="12"/>
@@ -1132,7 +1133,7 @@
     </row>
     <row r="5" spans="1:24" ht="19.5" customHeight="1" thickTop="1">
       <c r="A5" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>30</v>
@@ -1168,37 +1169,37 @@
         <v>40</v>
       </c>
       <c r="M5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="O5" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="P5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="Q5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="R5" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="R5" s="10" t="s">
-        <v>52</v>
-      </c>
       <c r="S5" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="X5" s="10" t="s">
         <v>41</v>
